--- a/document/项目管理/测试进度计划-卢茜君.xlsx
+++ b/document/项目管理/测试进度计划-卢茜君.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="测试进度计划" sheetId="6" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>编写测试方案</t>
   </si>
   <si>
-    <t>2019.08.31-2019.09.01</t>
+    <t>2019.08.31-2019.09.05</t>
   </si>
   <si>
     <t>测试经理：卢茜君
@@ -126,7 +126,7 @@
     <t>环境准备</t>
   </si>
   <si>
-    <t>2019.09.02</t>
+    <t>2019.09.05</t>
   </si>
   <si>
     <t>编码负责人：侯添久
@@ -139,7 +139,7 @@
     <t>单元测试</t>
   </si>
   <si>
-    <t>2019.08.30-2019.09.05</t>
+    <t>2019.08.30-2019.09.09</t>
   </si>
   <si>
     <t>测试负责人：卢茜君
@@ -154,7 +154,7 @@
     <t>集成测试</t>
   </si>
   <si>
-    <t>2019.09.03-2019.09.05</t>
+    <t>2019.09.05-2019.09.09</t>
   </si>
   <si>
     <t>1、组合已进行过单元测试的模块进行集成测试
@@ -165,7 +165,7 @@
     <t>系统测试</t>
   </si>
   <si>
-    <t>2019.09.06-2019.09.07</t>
+    <t>2019.09.09-2019.09.10</t>
   </si>
   <si>
     <t>项目经理
@@ -186,7 +186,7 @@
     <t>总结测试情况</t>
   </si>
   <si>
-    <t>2019.09.07</t>
+    <t>2019.09.11</t>
   </si>
   <si>
     <t>对被测软件进行评价和说明</t>
@@ -200,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -243,6 +243,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,24 +326,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,14 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -303,92 +378,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +415,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,175 +469,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,8 +630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,12 +651,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -701,26 +714,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,148 +729,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6" outlineLevelCol="4"/>
